--- a/Electronics/Part Lists/FAIMSFBpartsList.xlsx
+++ b/Electronics/Part Lists/FAIMSFBpartsList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan-SFF\Box\1_BIOMEMS MEMBERS\KOCH Dylan\0_KOCH\OpenDMS\Part Lists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan Koch\Documents\GitHub\OpenDMS\Electronics\Part Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5295F48A-5B1C-4FA8-9A53-61F2C5C40689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CA3BC4-620E-4F3D-9029-0B9A0E8AAEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8235" yWindow="4275" windowWidth="22410" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="29829" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rev 2.0" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="325">
   <si>
     <t>Qty</t>
   </si>
@@ -1026,6 +1026,12 @@
   </si>
   <si>
     <t>399-7170-1-ND</t>
+  </si>
+  <si>
+    <t>495-5250-ND</t>
+  </si>
+  <si>
+    <t>RM3 630 nH cores (custom assembly see guide)</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +1041,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1066,24 +1072,28 @@
       <sz val="24"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1091,6 +1101,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1429,7 +1445,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1484,6 +1500,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="277">
@@ -2104,24 +2123,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="61" zoomScaleNormal="125" workbookViewId="0">
+      <selection sqref="A1:J75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54.5" customWidth="1"/>
-    <col min="6" max="6" width="45.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="31.5">
+    <row r="1" spans="1:13" ht="30.9">
       <c r="A1" s="20" t="s">
         <v>310</v>
       </c>
@@ -2233,7 +2255,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="47.25">
+    <row r="5" spans="1:13" ht="47.6">
       <c r="A5" s="4">
         <v>28</v>
       </c>
@@ -4383,6 +4405,22 @@
       </c>
       <c r="E73" t="s">
         <v>309</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="I73" s="7">
+        <v>5.58</v>
+      </c>
+      <c r="J73" s="9">
+        <f>I73*A73</f>
+        <v>11.16</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -4460,7 +4498,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="38" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>

--- a/Electronics/Part Lists/FAIMSFBpartsList.xlsx
+++ b/Electronics/Part Lists/FAIMSFBpartsList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dylan Koch\Documents\GitHub\OpenDMS\Electronics\Part Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CA3BC4-620E-4F3D-9029-0B9A0E8AAEA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C7150E-091F-4260-A794-E2F3FDC2AFC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="29829" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1498,11 +1498,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="277">
@@ -2128,8 +2128,8 @@
   </sheetPr>
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="61" zoomScaleNormal="125" workbookViewId="0">
-      <selection sqref="A1:J75"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="61" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9"/>
@@ -2144,18 +2144,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.9">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
@@ -4406,7 +4406,7 @@
       <c r="E73" t="s">
         <v>309</v>
       </c>
-      <c r="F73" s="21" t="s">
+      <c r="F73" s="20" t="s">
         <v>324</v>
       </c>
       <c r="G73" s="6" t="s">
